--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value495.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value495.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8330536787887984</v>
+        <v>1.326392292976379</v>
       </c>
       <c r="B1">
-        <v>1.528030129920855</v>
+        <v>3.291231870651245</v>
       </c>
       <c r="C1">
-        <v>3.538658311236126</v>
+        <v>5.592843532562256</v>
       </c>
       <c r="D1">
-        <v>2.806849574784034</v>
+        <v>1.709142446517944</v>
       </c>
       <c r="E1">
-        <v>1.180431280167376</v>
+        <v>0.9997802376747131</v>
       </c>
     </row>
   </sheetData>
